--- a/pm/static/activity codes.xlsx
+++ b/pm/static/activity codes.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonTest\Voltron\district_chrystal_report_website\hpms-site\pm\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E025205\Documents\GitHub\hpms-site\pm\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0E08DB9-8E18-4143-8B18-6EC5CF737152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF98DC6-A04D-4455-BB6E-E41FEF8D1B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{59C784A8-5D90-4BC8-AE99-010F85FF8A83}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{59C784A8-5D90-4BC8-AE99-010F85FF8A83}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Activity Codes (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Activity Codes (2)" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_2015BridgeListingSDFOSR">#REF!</definedName>
@@ -802,22 +801,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDD8689-A564-4DED-B2F0-A7EE15EDFA92}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAB2958-4DC2-494F-BD58-2279F738013A}">
   <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
